--- a/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级放化二班.xlsx
+++ b/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级放化二班.xlsx
@@ -558,7 +558,7 @@
         <v>27</v>
       </c>
       <c r="L2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         <v>4.3</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
         <v>94</v>
       </c>
       <c r="R2" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -690,7 +690,7 @@
         <v>76</v>
       </c>
       <c r="R4" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1156,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1196,7 +1196,7 @@
         <v>80</v>
       </c>
       <c r="R13" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1324,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -1364,7 +1364,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
